--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t>Class</t>
   </si>
@@ -290,7 +290,10 @@
     <t>Hero</t>
   </si>
   <si>
-    <t>uuid</t>
+    <t>heroid</t>
+  </si>
+  <si>
+    <t>出战的英雄</t>
   </si>
   <si>
     <t>matchid</t>
@@ -421,124 +424,16 @@
   <si>
     <t>玩家所在服务器id</t>
   </si>
-  <si>
-    <t>rand</t>
-  </si>
-  <si>
-    <t>是否随机( 添加配置使用 )</t>
-  </si>
-  <si>
-    <t>是否随机</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>profession</t>
-  </si>
-  <si>
-    <t>职业</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>identity</t>
-  </si>
-  <si>
-    <t>身份(皇室, 贵族, 平面等 )</t>
-  </si>
-  <si>
-    <t>身份</t>
-  </si>
-  <si>
-    <t>生日( 时间戳 )</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>品质</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>weapon</t>
-  </si>
-  <si>
-    <t>武器</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>array</t>
-  </si>
-  <si>
-    <t>主动技能</t>
-  </si>
-  <si>
-    <t>passivity</t>
-  </si>
-  <si>
-    <t>被动技能</t>
-  </si>
-  <si>
-    <t>innate</t>
-  </si>
-  <si>
-    <t>天赋技能</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>dex</t>
-  </si>
-  <si>
-    <t>敏捷</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>体质</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>智力</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -573,22 +468,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,22 +478,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,71 +514,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,19 +537,87 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -769,19 +664,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,157 +820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,22 +867,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,6 +893,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,6 +939,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1033,39 +956,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,10 +972,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,133 +984,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1664,14 +1559,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="$A16:$XFD16"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2365,7 +2260,7 @@
         <v>78</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="J16" s="5">
         <v>1</v>
@@ -2395,18 +2290,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" ht="15" customHeight="1" spans="1:18">
+    <row r="17" s="5" customFormat="1" spans="1:18">
       <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="5">
         <v>1</v>
@@ -2441,19 +2336,19 @@
         <v>52</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="J18" s="5">
         <v>1</v>
       </c>
       <c r="K18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
@@ -2482,13 +2377,13 @@
         <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" s="5">
         <v>1</v>
@@ -2523,95 +2418,95 @@
         <v>52</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="15" customHeight="1" spans="1:18">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>0</v>
-      </c>
-      <c r="R20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" s="6" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A21" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1</v>
-      </c>
-      <c r="K21" s="6">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6">
-        <v>1</v>
-      </c>
-      <c r="P21" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>1</v>
-      </c>
-      <c r="R21" s="6">
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" s="6" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A22" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="J22" s="6">
         <v>1</v>
@@ -2643,16 +2538,16 @@
     </row>
     <row r="23" s="6" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A23" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="J23" s="6">
         <v>1</v>
@@ -2684,19 +2579,19 @@
     </row>
     <row r="24" s="6" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A24" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="6">
         <v>1</v>
@@ -2725,16 +2620,16 @@
     </row>
     <row r="25" s="6" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A25" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="J25" s="6">
         <v>0</v>
@@ -2766,86 +2661,83 @@
     </row>
     <row r="26" s="6" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A26" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>1</v>
+      </c>
+      <c r="P26" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>1</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="6" customFormat="1" ht="15" customHeight="1" spans="1:18">
+      <c r="A27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>1</v>
-      </c>
-      <c r="L26" s="6">
-        <v>1</v>
-      </c>
-      <c r="M26" s="6">
-        <v>1</v>
-      </c>
-      <c r="N26" s="6">
-        <v>1</v>
-      </c>
-      <c r="O26" s="6">
-        <v>1</v>
-      </c>
-      <c r="P26" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>1</v>
-      </c>
-      <c r="R26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>0</v>
-      </c>
-      <c r="R27" s="7">
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
+        <v>1</v>
+      </c>
+      <c r="P27" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>1</v>
+      </c>
+      <c r="R27" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2854,13 +2746,16 @@
         <v>78</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J28" s="7">
         <v>1</v>
@@ -2887,772 +2782,6 @@
         <v>0</v>
       </c>
       <c r="R28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A29" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J29" s="7">
-        <v>1</v>
-      </c>
-      <c r="K29" s="7">
-        <v>1</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30" s="7">
-        <v>1</v>
-      </c>
-      <c r="K30" s="7">
-        <v>1</v>
-      </c>
-      <c r="L30" s="7">
-        <v>0</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-      <c r="P30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J31" s="7">
-        <v>1</v>
-      </c>
-      <c r="K31" s="7">
-        <v>1</v>
-      </c>
-      <c r="L31" s="7">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
-        <v>0</v>
-      </c>
-      <c r="P31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>0</v>
-      </c>
-      <c r="R31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J32" s="7">
-        <v>1</v>
-      </c>
-      <c r="K32" s="7">
-        <v>1</v>
-      </c>
-      <c r="L32" s="7">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="J33" s="7">
-        <v>1</v>
-      </c>
-      <c r="K33" s="7">
-        <v>1</v>
-      </c>
-      <c r="L33" s="7">
-        <v>0</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>0</v>
-      </c>
-      <c r="R33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J34" s="7">
-        <v>1</v>
-      </c>
-      <c r="K34" s="7">
-        <v>1</v>
-      </c>
-      <c r="L34" s="7">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-      <c r="P34" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J35" s="7">
-        <v>1</v>
-      </c>
-      <c r="K35" s="7">
-        <v>1</v>
-      </c>
-      <c r="L35" s="7">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="7">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>0</v>
-      </c>
-      <c r="R35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A36" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J36" s="7">
-        <v>1</v>
-      </c>
-      <c r="K36" s="7">
-        <v>1</v>
-      </c>
-      <c r="L36" s="7">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="7">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-      <c r="P36" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>0</v>
-      </c>
-      <c r="R36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A37" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="7">
-        <v>1</v>
-      </c>
-      <c r="J37" s="7">
-        <v>1</v>
-      </c>
-      <c r="K37" s="7">
-        <v>1</v>
-      </c>
-      <c r="L37" s="7">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7">
-        <v>0</v>
-      </c>
-      <c r="P37" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>0</v>
-      </c>
-      <c r="R37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A38" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J38" s="7">
-        <v>1</v>
-      </c>
-      <c r="K38" s="7">
-        <v>1</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-      <c r="P38" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>0</v>
-      </c>
-      <c r="R38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A39" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="7">
-        <v>3</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J39" s="7">
-        <v>1</v>
-      </c>
-      <c r="K39" s="7">
-        <v>1</v>
-      </c>
-      <c r="L39" s="7">
-        <v>0</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7">
-        <v>0</v>
-      </c>
-      <c r="P39" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>0</v>
-      </c>
-      <c r="R39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A40" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="7">
-        <v>3</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J40" s="7">
-        <v>1</v>
-      </c>
-      <c r="K40" s="7">
-        <v>1</v>
-      </c>
-      <c r="L40" s="7">
-        <v>0</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7">
-        <v>0</v>
-      </c>
-      <c r="P40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>0</v>
-      </c>
-      <c r="R40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A41" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="7">
-        <v>3</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J41" s="7">
-        <v>1</v>
-      </c>
-      <c r="K41" s="7">
-        <v>1</v>
-      </c>
-      <c r="L41" s="7">
-        <v>0</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7">
-        <v>0</v>
-      </c>
-      <c r="P41" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>0</v>
-      </c>
-      <c r="R41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A42" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J42" s="7">
-        <v>1</v>
-      </c>
-      <c r="K42" s="7">
-        <v>1</v>
-      </c>
-      <c r="L42" s="7">
-        <v>0</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7">
-        <v>0</v>
-      </c>
-      <c r="P42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>0</v>
-      </c>
-      <c r="R42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A43" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J43" s="7">
-        <v>1</v>
-      </c>
-      <c r="K43" s="7">
-        <v>1</v>
-      </c>
-      <c r="L43" s="7">
-        <v>0</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>0</v>
-      </c>
-      <c r="R43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A44" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="J44" s="7">
-        <v>1</v>
-      </c>
-      <c r="K44" s="7">
-        <v>1</v>
-      </c>
-      <c r="L44" s="7">
-        <v>0</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0</v>
-      </c>
-      <c r="O44" s="7">
-        <v>0</v>
-      </c>
-      <c r="P44" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="7">
-        <v>0</v>
-      </c>
-      <c r="R44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A45" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J45" s="7">
-        <v>1</v>
-      </c>
-      <c r="K45" s="7">
-        <v>1</v>
-      </c>
-      <c r="L45" s="7">
-        <v>0</v>
-      </c>
-      <c r="M45" s="7">
-        <v>0</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0</v>
-      </c>
-      <c r="P45" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>0</v>
-      </c>
-      <c r="R45" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t>Class</t>
   </si>
@@ -424,6 +424,12 @@
   <si>
     <t>玩家所在服务器id</t>
   </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>玩家段位积分</t>
+  </si>
 </sst>
 </file>
 
@@ -431,9 +437,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -468,9 +474,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,21 +527,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -520,9 +556,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,22 +565,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,14 +573,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -575,24 +587,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,10 +602,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,169 +676,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,21 +874,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -893,21 +884,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,15 +915,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -964,6 +931,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -972,10 +978,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,133 +990,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1559,14 +1565,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="$A17:$XFD17"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="$A28:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2741,47 +2747,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
-      <c r="A28" s="7" t="s">
+    <row r="28" s="6" customFormat="1" ht="15" customHeight="1" spans="1:18">
+      <c r="A28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>1</v>
+      </c>
+      <c r="P28" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>1</v>
+      </c>
+      <c r="R28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="7" customFormat="1" ht="15" customHeight="1" spans="1:18">
+      <c r="A29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="7">
-        <v>1</v>
-      </c>
-      <c r="K28" s="7">
-        <v>1</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>0</v>
-      </c>
-      <c r="R28" s="7">
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/class.xlsx
+++ b/Resource/excel/class.xlsx
@@ -28,24 +28,7 @@
     <t>Type</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>omment</t>
-    </r>
+    <t>Comment</t>
   </si>
   <si>
     <t>Element</t>
@@ -72,24 +55,7 @@
     <t>View</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ublic</t>
-    </r>
+    <t>Public</t>
   </si>
   <si>
     <t>Relation</t>
@@ -475,9 +441,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,11 +502,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,23 +531,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,7 +555,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,45 +563,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,9 +585,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -670,19 +636,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +750,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,145 +792,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,6 +835,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,21 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -933,25 +908,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,10 +944,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,133 +956,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1572,7 +1538,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="$A28:$XFD28"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
